--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - countries.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - countries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="49">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 countries</t>
@@ -160,7 +160,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:46:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:25:52</t>
   </si>
 </sst>
 </file>
@@ -9064,10 +9064,10 @@
         <v>11</v>
       </c>
       <c r="D545" t="n" s="10">
-        <v>488056.0</v>
+        <v>488465.0</v>
       </c>
       <c r="E545" t="n" s="10">
-        <v>70043.0</v>
+        <v>70212.0</v>
       </c>
     </row>
     <row r="546">
@@ -9095,10 +9095,10 @@
         <v>11</v>
       </c>
       <c r="D547" t="n" s="10">
-        <v>621632.0</v>
+        <v>622144.0</v>
       </c>
       <c r="E547" t="n" s="10">
-        <v>59678.0</v>
+        <v>59829.0</v>
       </c>
     </row>
     <row r="548">
@@ -9126,10 +9126,10 @@
         <v>11</v>
       </c>
       <c r="D549" t="n" s="10">
-        <v>532097.0</v>
+        <v>520560.0</v>
       </c>
       <c r="E549" t="n" s="10">
-        <v>64010.0</v>
+        <v>64006.0</v>
       </c>
     </row>
     <row r="550">
@@ -9157,10 +9157,10 @@
         <v>11</v>
       </c>
       <c r="D551" t="n" s="10">
-        <v>477842.0</v>
+        <v>476692.0</v>
       </c>
       <c r="E551" t="n" s="10">
-        <v>51926.0</v>
+        <v>52007.0</v>
       </c>
     </row>
     <row r="552">
@@ -9174,10 +9174,10 @@
         <v>11</v>
       </c>
       <c r="D552" t="n" s="10">
-        <v>929104.0</v>
+        <v>928216.0</v>
       </c>
       <c r="E552" t="n" s="10">
-        <v>158920.0</v>
+        <v>158360.0</v>
       </c>
     </row>
     <row r="553">
@@ -9188,10 +9188,10 @@
         <v>11</v>
       </c>
       <c r="D553" t="n" s="10">
-        <v>483051.0</v>
+        <v>489049.0</v>
       </c>
       <c r="E553" t="n" s="10">
-        <v>47511.0</v>
+        <v>48276.0</v>
       </c>
     </row>
     <row r="554">
@@ -9205,10 +9205,10 @@
         <v>11</v>
       </c>
       <c r="D554" t="n" s="10">
-        <v>862754.0</v>
+        <v>862679.0</v>
       </c>
       <c r="E554" t="n" s="10">
-        <v>159439.0</v>
+        <v>159492.0</v>
       </c>
     </row>
     <row r="555">
@@ -9219,10 +9219,10 @@
         <v>11</v>
       </c>
       <c r="D555" t="n" s="10">
-        <v>644843.0</v>
+        <v>638310.0</v>
       </c>
       <c r="E555" t="n" s="10">
-        <v>46479.0</v>
+        <v>46781.0</v>
       </c>
     </row>
     <row r="556" ht="50.6" customHeight="true">
@@ -9241,10 +9241,10 @@
         <v>11</v>
       </c>
       <c r="D557" t="n" s="10">
-        <v>821564.0</v>
+        <v>814942.0</v>
       </c>
       <c r="E557" t="n" s="10">
-        <v>117656.0</v>
+        <v>117737.0</v>
       </c>
     </row>
     <row r="558">
@@ -9255,10 +9255,10 @@
         <v>11</v>
       </c>
       <c r="D558" t="n" s="10">
-        <v>454064.0</v>
+        <v>473317.0</v>
       </c>
       <c r="E558" t="n" s="10">
-        <v>39451.0</v>
+        <v>39533.0</v>
       </c>
     </row>
     <row r="559">
@@ -9271,11 +9271,11 @@
       <c r="C559" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D559" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E559" t="s" s="10">
-        <v>46</v>
+      <c r="D559" t="n" s="10">
+        <v>942864.0</v>
+      </c>
+      <c r="E559" t="n" s="10">
+        <v>146789.0</v>
       </c>
     </row>
     <row r="560">
@@ -9285,11 +9285,11 @@
       <c r="C560" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D560" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E560" t="s" s="10">
-        <v>46</v>
+      <c r="D560" t="n" s="10">
+        <v>451914.0</v>
+      </c>
+      <c r="E560" t="n" s="10">
+        <v>47230.0</v>
       </c>
     </row>
     <row r="561">
@@ -9302,11 +9302,11 @@
       <c r="C561" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D561" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E561" t="s" s="10">
-        <v>46</v>
+      <c r="D561" t="n" s="10">
+        <v>1141238.0</v>
+      </c>
+      <c r="E561" t="n" s="10">
+        <v>180170.0</v>
       </c>
     </row>
     <row r="562">
@@ -9316,11 +9316,11 @@
       <c r="C562" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D562" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E562" t="s" s="10">
-        <v>46</v>
+      <c r="D562" t="n" s="10">
+        <v>764185.0</v>
+      </c>
+      <c r="E562" t="n" s="10">
+        <v>45190.0</v>
       </c>
     </row>
     <row r="563">
@@ -9333,11 +9333,11 @@
       <c r="C563" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D563" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E563" t="s" s="10">
-        <v>46</v>
+      <c r="D563" t="n" s="10">
+        <v>1018060.0</v>
+      </c>
+      <c r="E563" t="n" s="10">
+        <v>130520.0</v>
       </c>
     </row>
     <row r="564">
@@ -9347,11 +9347,11 @@
       <c r="C564" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="D564" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E564" t="s" s="10">
-        <v>46</v>
+      <c r="D564" t="n" s="10">
+        <v>621886.0</v>
+      </c>
+      <c r="E564" t="n" s="10">
+        <v>45624.0</v>
       </c>
     </row>
     <row r="565">
@@ -9646,7 +9646,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:46:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:25:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - countries.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - countries.xlsx
@@ -160,7 +160,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:25:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:37:26</t>
   </si>
 </sst>
 </file>
@@ -9646,7 +9646,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:25:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:37:33&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>